--- a/results/I3_N5_M3_T30_C100_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>865.0746384140549</v>
+        <v>442.3346384127427</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3839998245239258</v>
+        <v>0.435999870300293</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>32.33463841274268</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.939986581409409</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.939986581409409</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.7400000013122</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -904,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.61595173195235</v>
+        <v>24.03376092121634</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.65075183719845</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25.64971265316876</v>
       </c>
     </row>
     <row r="7">
@@ -966,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,29 +987,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000216</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>155.917000000045</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="5">
@@ -1101,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>123.5009999999729</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>68.545000000011</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="7">
@@ -1123,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>67.25300000001093</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>123.5009999999688</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8560000000726</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>155.9170000000904</v>
+        <v>100.4</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23.5009999999685</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.856000000072356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1225,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>55.91700000009036</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1330,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1368,23 +1343,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
